--- a/biology/Zoologie/Dismorphia_theucharila/Dismorphia_theucharila.xlsx
+++ b/biology/Zoologie/Dismorphia_theucharila/Dismorphia_theucharila.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dismorphia theucharila est une espèce d'insectes lépidoptères (papillons) de la famille des Pieridae, de la sous-famille des Dismorphiinae et du genre Dismorphia.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dismorphia theucharila a été décrit par Edward Doubleday en 1848 sous le nom de Leptalis theucharila[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dismorphia theucharila a été décrit par Edward Doubleday en 1848 sous le nom de Leptalis theucharila.
 </t>
         </is>
       </c>
@@ -542,23 +556,22 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (30 décembre 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (30 décembre 2020) :
 Dismorphia theucharila theucharila
 Dismorphia theucharila argochloe (Bates, 1861) ; en Bolivie et au Brésil
 Dismorphia theucharila avonia (Hewitson, 1867) ; en Équateur et en Colombie
 Dismorphia theucharila fortunata (Lucas, 1854) ; au Mexique et au Panama
 Dismorphia theucharila leuconoe (Bates, 1861) ; en Colombie, en Équateur et au Brésil
-Dismorphia theucharila lysinoe (Hewitson, [1853]) ; au Brésil
+Dismorphia theucharila lysinoe (Hewitson, ) ; au Brésil
 Dismorphia theucharila lysinoides Staudinger, 1884 ; en Colombie
-Dismorphia theucharila siloe (Hewitson, [1858]) ; en Colombie
-Dismorphia theucharila theonoe (Hewitson, [1853]) ; en Équateur et au Brésil
+Dismorphia theucharila siloe (Hewitson, ) ; en Colombie
+Dismorphia theucharila theonoe (Hewitson, ) ; en Équateur et au Brésil
 Dismorphia theucharila vitrea Krüger, 1925 ; au Surinam et en Guyane
-Dismorphia theucharila xanthone Röber, 1924 ; en Colombie[1].
-Noms vernaculaires
-Dismorphia theucharila se nomme Clearwinged Mimic White en anglais.
-</t>
+Dismorphia theucharila xanthone Röber, 1924 ; en Colombie.</t>
         </is>
       </c>
     </row>
@@ -583,10 +596,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dismorphia theucharila se nomme Clearwinged Mimic White en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dismorphia_theucharila</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dismorphia_theucharila</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dismorphia theucharila est un papillon blanc et marron avec un dimorphisme sexuel et des différences entre les sous-espèces. Les ailes antérieures sont blanches avec l'apex marron et une bordure marron très large chez certaines sous-espèce et ne laissant qu'une bande blanche ou quelques taches blanches. Les ailes postérieures sont blanches plus ou moins largement bordées de marron  qui chez Dismorphia theucharila lysinoides est doublé d'une bande submarginale orange.
 Le revers est nacré.
@@ -594,36 +646,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Dismorphia_theucharila</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dismorphia_theucharila</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -648,13 +670,85 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent au Mexique, au Panama, et dans le Nord de l'Amérique du Sud (au Surinam, en Guyane, en Colombie, en Bolivie, en Équateur, au Venezuela et au Brésil)[1].
-Biotope
-Il réside en lisière de forêt[3].
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent au Mexique, au Panama, et dans le Nord de l'Amérique du Sud (au Surinam, en Guyane, en Colombie, en Bolivie, en Équateur, au Venezuela et au Brésil).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dismorphia_theucharila</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dismorphia_theucharila</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en lisière de forêt.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dismorphia_theucharila</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dismorphia_theucharila</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
